--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_9_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_9_square_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.22000000000035</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.161018052798358e-16</v>
+        <v>2.306956934286039e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>45.82029533562113</v>
+        <v>44.19802032410474</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[35.98771854963737, 55.65287212160488]</t>
+          <t>[32.43009022766118, 55.965950420548296]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.608713162681852e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.608713162681852e-12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.402552876377425</v>
+        <v>2.018921405009657</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.1635528346628856, 1.6415529180919641]</t>
+          <t>[1.7547634641672714, 2.283079345852042]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>61.033859547075</v>
+        <v>61.77431356931264</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.02864988874062, 67.03906920540939]</t>
+          <t>[55.52944715977745, 68.01917997884783]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.8135335335338</v>
+        <v>16.86516516516547</v>
       </c>
       <c r="X2" t="n">
-        <v>17.89225225225251</v>
+        <v>15.8204204204207</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.7348148148151</v>
+        <v>17.90990990991023</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.62000000000025</v>
+        <v>24.11000000000033</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +661,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.161018052798358e-16</v>
+        <v>2.306956934286039e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>49.16282443404735</v>
+        <v>48.44185049171178</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[38.63694829388823, 59.68870057420647]</t>
+          <t>[36.552364359586775, 60.331336623836776]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.662936703425657e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>9.325873406851315e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09434212172942313</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.1320789704211922, 0.3207632138800385]</t>
+          <t>[0.8868159442565782, 1.4151318259413488]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.412560381834868</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="R3" t="n">
-        <v>0.412560381834868</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="S3" t="n">
-        <v>59.70997087186022</v>
+        <v>66.55196693381382</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.09670508064649, 66.32323666307396]</t>
+          <t>[59.87940612818599, 73.22452773944164]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>23.26534534534559</v>
+        <v>19.69345345345372</v>
       </c>
       <c r="X3" t="n">
-        <v>22.41417417417442</v>
+        <v>18.67981981982007</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.11651651651677</v>
+        <v>20.70708708708737</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_9_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_9_square_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.85000000000045</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.306956934286039e-16</v>
+        <v>1.701491225479167e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>44.19802032410474</v>
+        <v>51.71032120459703</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[32.43009022766118, 55.965950420548296]</t>
+          <t>[42.454519845165024, 60.966122564029035]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.608713162681852e-12</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.608713162681852e-12</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.018921405009657</v>
+        <v>1.54092132158058</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.7547634641672714, 2.283079345852042]</t>
+          <t>[1.3396581285578097, 1.74218451460335]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>61.77431356931264</v>
+        <v>62.19878202327839</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.52944715977745, 68.01917997884783]</t>
+          <t>[56.04969610854924, 68.34786793800754]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.86516516516547</v>
+        <v>18.36318318318346</v>
       </c>
       <c r="X2" t="n">
-        <v>15.8204204204207</v>
+        <v>17.5838438438441</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.90990990991023</v>
+        <v>19.14252252252281</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.11000000000033</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +661,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.306956934286039e-16</v>
+        <v>1.701491225479167e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.44185049171178</v>
+        <v>50.68702236993854</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[36.552364359586775, 60.331336623836776]</t>
+          <t>[40.94137298597598, 60.4326717539011]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.662936703425657e-14</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>9.325873406851315e-14</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.150973885098963</v>
+        <v>0.01886842434588498</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.8868159442565782, 1.4151318259413488]</t>
+          <t>[-0.19497371824080734, 0.2327105669325773]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>0.8621508676829179</v>
       </c>
       <c r="R3" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>0.8621508676829179</v>
       </c>
       <c r="S3" t="n">
-        <v>66.55196693381382</v>
+        <v>59.15203213723791</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[59.87940612818599, 73.22452773944164]</t>
+          <t>[52.71246128588442, 65.5916029885914]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.69345345345372</v>
+        <v>23.47927927927952</v>
       </c>
       <c r="X3" t="n">
-        <v>18.67981981982007</v>
+        <v>22.67777777777801</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.70708708708737</v>
+        <v>24.28078078078103</v>
       </c>
     </row>
   </sheetData>
